--- a/data/MainData.xlsx
+++ b/data/MainData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,101 +580,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Asdfasdf</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Asdf</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Asdf</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21-06-2004</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>33333-3333333-3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>aaasdf</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Pakistani</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Islam</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Asdfasdfasd</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Asdf</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Middle</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>cv 1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/MainData.xlsx
+++ b/data/MainData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,101 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Asdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Asdf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Asdf</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12-03-2006</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>33333-3333333-3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pakistani</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Asdfasdf</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Fasdf</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Middle</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>cv 9</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
